--- a/projet/Optimisation/src/data/Resultats.xlsx
+++ b/projet/Optimisation/src/data/Resultats.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X12"/>
+  <dimension ref="A1:X11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -553,10 +553,10 @@
         <v>530</v>
       </c>
       <c r="C2" t="n">
-        <v>0.399</v>
+        <v>0.406</v>
       </c>
       <c r="D2" t="n">
-        <v>211.661</v>
+        <v>215.242</v>
       </c>
       <c r="E2" t="n">
         <v/>
@@ -629,10 +629,10 @@
         <v>530</v>
       </c>
       <c r="C3" t="n">
-        <v>0.35</v>
+        <v>0.3</v>
       </c>
       <c r="D3" t="n">
-        <v>185.5</v>
+        <v>159</v>
       </c>
       <c r="E3" t="n">
         <v/>
@@ -705,10 +705,10 @@
         <v>507</v>
       </c>
       <c r="C4" t="n">
-        <v>0.099</v>
+        <v>0.1</v>
       </c>
       <c r="D4" t="n">
-        <v>50.378</v>
+        <v>50.468</v>
       </c>
       <c r="E4" t="n">
         <v/>
@@ -781,10 +781,10 @@
         <v>430</v>
       </c>
       <c r="C5" t="n">
-        <v>0.09</v>
+        <v>0.08599999999999999</v>
       </c>
       <c r="D5" t="n">
-        <v>38.56</v>
+        <v>36.994</v>
       </c>
       <c r="E5" t="n">
         <v/>
@@ -850,17 +850,17 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>FDN1221 RAILS DE CHEMIN DE FER 40CM</t>
+          <t>92658100 E3C Cubilot</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>423.9</v>
+        <v>430</v>
       </c>
       <c r="C6" t="n">
-        <v>0.021</v>
+        <v>0.067</v>
       </c>
       <c r="D6" t="n">
-        <v>8.933</v>
+        <v>29.023</v>
       </c>
       <c r="E6" t="n">
         <v/>
@@ -872,37 +872,37 @@
         <v>0.1</v>
       </c>
       <c r="H6" t="n">
-        <v>0.335</v>
+        <v>0.175</v>
       </c>
       <c r="I6" t="n">
-        <v>0.98</v>
+        <v>1.1</v>
       </c>
       <c r="J6" t="n">
-        <v>0.041</v>
+        <v>0.1</v>
       </c>
       <c r="K6" t="n">
-        <v>0.051</v>
+        <v>0.09</v>
       </c>
       <c r="L6" t="n">
-        <v>0.018</v>
+        <v>0.014</v>
       </c>
       <c r="M6" t="n">
-        <v>0.021</v>
+        <v>0.031</v>
       </c>
       <c r="N6" t="n">
-        <v>0.004</v>
+        <v>0.001</v>
       </c>
       <c r="O6" t="n">
         <v>0.003</v>
       </c>
       <c r="P6" t="n">
-        <v>0.008</v>
+        <v>0.006</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.002</v>
+        <v>0.035</v>
       </c>
       <c r="R6" t="n">
-        <v>0.014</v>
+        <v>0.003</v>
       </c>
       <c r="S6" t="n">
         <v>0.001</v>
@@ -911,32 +911,32 @@
         <v>0.002</v>
       </c>
       <c r="U6" t="n">
+        <v>0.007</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="W6" t="n">
         <v>0.001</v>
       </c>
-      <c r="V6" t="n">
-        <v>0.002</v>
-      </c>
-      <c r="W6" t="n">
-        <v>0.002</v>
-      </c>
       <c r="X6" t="n">
-        <v>0.005</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>92658100 E3C Cubilot</t>
+          <t>FDN1221 RAILS DE CHEMIN DE FER 40CM</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>430</v>
+        <v>423.9</v>
       </c>
       <c r="C7" t="n">
-        <v>0.02</v>
+        <v>0.016</v>
       </c>
       <c r="D7" t="n">
-        <v>8.589</v>
+        <v>6.852</v>
       </c>
       <c r="E7" t="n">
         <v/>
@@ -948,37 +948,37 @@
         <v>0.1</v>
       </c>
       <c r="H7" t="n">
-        <v>0.175</v>
+        <v>0.335</v>
       </c>
       <c r="I7" t="n">
-        <v>1.1</v>
+        <v>0.98</v>
       </c>
       <c r="J7" t="n">
-        <v>0.1</v>
+        <v>0.041</v>
       </c>
       <c r="K7" t="n">
-        <v>0.09</v>
+        <v>0.051</v>
       </c>
       <c r="L7" t="n">
-        <v>0.014</v>
+        <v>0.018</v>
       </c>
       <c r="M7" t="n">
-        <v>0.031</v>
+        <v>0.021</v>
       </c>
       <c r="N7" t="n">
-        <v>0.001</v>
+        <v>0.004</v>
       </c>
       <c r="O7" t="n">
         <v>0.003</v>
       </c>
       <c r="P7" t="n">
-        <v>0.006</v>
+        <v>0.008</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.035</v>
+        <v>0.002</v>
       </c>
       <c r="R7" t="n">
-        <v>0.003</v>
+        <v>0.014</v>
       </c>
       <c r="S7" t="n">
         <v>0.001</v>
@@ -987,32 +987,32 @@
         <v>0.002</v>
       </c>
       <c r="U7" t="n">
-        <v>0.007</v>
+        <v>0.001</v>
       </c>
       <c r="V7" t="n">
-        <v>0.003</v>
+        <v>0.002</v>
       </c>
       <c r="W7" t="n">
-        <v>0.001</v>
+        <v>0.002</v>
       </c>
       <c r="X7" t="n">
-        <v>0.001</v>
+        <v>0.005</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>FDN1203 BROYÉ AUTOMOBILE</t>
+          <t>FDN1089. CARBONE 99.05 5-10MM</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>383</v>
+        <v>991</v>
       </c>
       <c r="C8" t="n">
-        <v>0.014</v>
+        <v>0.003</v>
       </c>
       <c r="D8" t="n">
-        <v>5.486</v>
+        <v>2.691</v>
       </c>
       <c r="E8" t="n">
         <v/>
@@ -1021,19 +1021,19 @@
         <v/>
       </c>
       <c r="G8" t="n">
-        <v>0.5</v>
+        <v>90</v>
       </c>
       <c r="H8" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -1078,17 +1078,17 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>FDN1089. CARBONE 99.05 5-10MM</t>
+          <t>FDN1212 CARBONE 98-95 2-10MM</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>991</v>
+        <v>856</v>
       </c>
       <c r="C9" t="n">
-        <v>0.002</v>
+        <v>0.003</v>
       </c>
       <c r="D9" t="n">
-        <v>2.179</v>
+        <v>2.686</v>
       </c>
       <c r="E9" t="n">
         <v/>
@@ -1152,19 +1152,17 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>FDN1212 CARBONE 98-95 2-10MM</t>
-        </is>
+      <c r="A10" t="n">
+        <v/>
       </c>
       <c r="B10" t="n">
-        <v>856</v>
+        <v/>
       </c>
       <c r="C10" t="n">
-        <v>0.002</v>
+        <v/>
       </c>
       <c r="D10" t="n">
-        <v>1.924</v>
+        <v/>
       </c>
       <c r="E10" t="n">
         <v/>
@@ -1173,208 +1171,134 @@
         <v/>
       </c>
       <c r="G10" t="n">
-        <v>90</v>
+        <v/>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v/>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="n">
-        <v/>
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Resultats</t>
+        </is>
       </c>
       <c r="B11" t="n">
         <v/>
       </c>
       <c r="C11" t="n">
-        <v/>
+        <v>0.9809999999999999</v>
       </c>
       <c r="D11" t="n">
-        <v/>
+        <v>502.956</v>
       </c>
       <c r="E11" t="n">
-        <v/>
+        <v>0.155161</v>
       </c>
       <c r="F11" t="n">
-        <v/>
+        <v>1.10463787</v>
       </c>
       <c r="G11" t="n">
-        <v/>
+        <v>3.6798</v>
       </c>
       <c r="H11" t="n">
-        <v/>
+        <v>1.582263</v>
       </c>
       <c r="I11" t="n">
-        <v/>
+        <v>0.224508</v>
       </c>
       <c r="J11" t="n">
-        <v/>
+        <v>0.055462</v>
       </c>
       <c r="K11" t="n">
-        <v/>
+        <v>0.04681999999999999</v>
       </c>
       <c r="L11" t="n">
-        <v/>
+        <v>0.025628</v>
       </c>
       <c r="M11" t="n">
-        <v/>
+        <v>0.007525</v>
       </c>
       <c r="N11" t="n">
-        <v/>
+        <v>0.006073</v>
       </c>
       <c r="O11" t="n">
-        <v/>
+        <v>0.012455</v>
       </c>
       <c r="P11" t="n">
-        <v/>
+        <v>0.005448000000000001</v>
       </c>
       <c r="Q11" t="n">
-        <v/>
+        <v>0.010195</v>
       </c>
       <c r="R11" t="n">
-        <v/>
+        <v>0.024569</v>
       </c>
       <c r="S11" t="n">
-        <v/>
+        <v>0.016807</v>
       </c>
       <c r="T11" t="n">
-        <v/>
+        <v>0.002396</v>
       </c>
       <c r="U11" t="n">
-        <v/>
+        <v>0.008350999999999999</v>
       </c>
       <c r="V11" t="n">
-        <v/>
+        <v>0.001439</v>
       </c>
       <c r="W11" t="n">
-        <v/>
+        <v>0.001923</v>
       </c>
       <c r="X11" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Resultats</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v/>
-      </c>
-      <c r="C12" t="n">
-        <v>0.997</v>
-      </c>
-      <c r="D12" t="n">
-        <v>513.21</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0.157491</v>
-      </c>
-      <c r="F12" t="n">
-        <v>1.12995069</v>
-      </c>
-      <c r="G12" t="n">
-        <v>3.66925</v>
-      </c>
-      <c r="H12" t="n">
-        <v>1.713972</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0.197092</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0.054635</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0.050717</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0.026521</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0.006646</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0.006496</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0.013264</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0.005678</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>0.009002999999999999</v>
-      </c>
-      <c r="R12" t="n">
-        <v>0.025523</v>
-      </c>
-      <c r="S12" t="n">
-        <v>0.019236</v>
-      </c>
-      <c r="T12" t="n">
-        <v>0.002275</v>
-      </c>
-      <c r="U12" t="n">
-        <v>0.008446</v>
-      </c>
-      <c r="V12" t="n">
-        <v>0.001346</v>
-      </c>
-      <c r="W12" t="n">
-        <v>0.001856</v>
-      </c>
-      <c r="X12" t="n">
-        <v>0.003625</v>
+        <v>0.003147</v>
       </c>
     </row>
   </sheetData>

--- a/projet/Optimisation/src/data/Resultats.xlsx
+++ b/projet/Optimisation/src/data/Resultats.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GS 450-10" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="GS 400-15" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="GS 500-7" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="GS 600-3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GS 450-10" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GS 400-15" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GS 500-7" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GS 600-3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1120,7 +1120,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X11"/>
+  <dimension ref="A1:X10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1253,208 +1253,208 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>13 Retour Bleu</t>
+          <t>FDN0609 FONTE D'AFFINAGE</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>530</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4</v>
+        <v>0.4491480971004915</v>
       </c>
       <c r="D2" t="n">
-        <v>212</v>
+        <v>238.0484914632605</v>
       </c>
       <c r="G2" t="n">
-        <v>3.65</v>
+        <v>4.25</v>
       </c>
       <c r="H2" t="n">
-        <v>2.64</v>
+        <v>0.763</v>
       </c>
       <c r="I2" t="n">
-        <v>0.22</v>
+        <v>0.038</v>
       </c>
       <c r="J2" t="n">
-        <v>0.06</v>
+        <v>0.001</v>
       </c>
       <c r="K2" t="n">
-        <v>0.05</v>
+        <v>0.019</v>
       </c>
       <c r="L2" t="n">
-        <v>0.03</v>
+        <v>0.027</v>
       </c>
       <c r="M2" t="n">
-        <v>0.01</v>
+        <v>0.002</v>
       </c>
       <c r="N2" t="n">
-        <v>0.01</v>
+        <v>0.007</v>
       </c>
       <c r="O2" t="n">
-        <v>0.02</v>
+        <v>0.001</v>
       </c>
       <c r="P2" t="n">
-        <v>0.01</v>
+        <v>0.003</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.01</v>
+        <v>0.003</v>
       </c>
       <c r="R2" t="n">
-        <v>0.01</v>
+        <v>0.014</v>
       </c>
       <c r="S2" t="n">
-        <v>0.05</v>
+        <v>0.004</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="U2" t="n">
-        <v>0.01</v>
+        <v>0.011</v>
       </c>
       <c r="V2" t="n">
         <v>0.001</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>0.004</v>
       </c>
       <c r="X2" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>FDN1207 E8C</t>
+          <t>13 Retour Bleu</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>453</v>
+        <v>530</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2861110656818706</v>
+        <v>0.2764920915679085</v>
       </c>
       <c r="D3" t="n">
-        <v>129.6083127538874</v>
+        <v>146.5408085309915</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1</v>
+        <v>3.65</v>
       </c>
       <c r="H3" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="O3" t="n">
         <v>0.02</v>
       </c>
-      <c r="I3" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="J3" t="n">
+      <c r="P3" t="n">
         <v>0.01</v>
       </c>
-      <c r="K3" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="L3" t="n">
+      <c r="Q3" t="n">
         <v>0.01</v>
       </c>
-      <c r="M3" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0.03</v>
-      </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>FDN0609 FONTE D'AFFINAGE</t>
+          <t>FDN0172 Frites Mn</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>530</v>
+        <v>513.8</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2012503612184769</v>
+        <v>0.1670633987612217</v>
       </c>
       <c r="D4" t="n">
-        <v>106.6626914457928</v>
+        <v>85.83717428351572</v>
       </c>
       <c r="G4" t="n">
-        <v>4.25</v>
+        <v>0.1</v>
       </c>
       <c r="H4" t="n">
-        <v>0.763</v>
+        <v>0.016</v>
       </c>
       <c r="I4" t="n">
-        <v>0.038</v>
+        <v>0.35</v>
       </c>
       <c r="J4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.032</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.007</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="N4" t="n">
         <v>0.001</v>
       </c>
-      <c r="K4" t="n">
-        <v>0.019</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0.027</v>
-      </c>
-      <c r="M4" t="n">
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0.007</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0.046</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="T4" t="n">
         <v>0.002</v>
       </c>
-      <c r="N4" t="n">
-        <v>0.007</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="P4" t="n">
+      <c r="U4" t="n">
         <v>0.003</v>
       </c>
-      <c r="Q4" t="n">
+      <c r="V4" t="n">
         <v>0.003</v>
       </c>
-      <c r="R4" t="n">
-        <v>0.014</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0.004</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0.011</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0.001</v>
-      </c>
       <c r="W4" t="n">
-        <v>0.004</v>
+        <v>0.002</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -1470,10 +1470,10 @@
         <v>507</v>
       </c>
       <c r="C5" t="n">
-        <v>0.05660698804922422</v>
+        <v>0.090879483992092</v>
       </c>
       <c r="D5" t="n">
-        <v>28.69974294095668</v>
+        <v>46.07589838399065</v>
       </c>
       <c r="G5" t="n">
         <v>0.1</v>
@@ -1533,35 +1533,35 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>FDN0184 Disque</t>
+          <t>FDN0207 FERRO SILICIUM 75</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>430</v>
+        <v>2100</v>
       </c>
       <c r="C6" t="n">
-        <v>0.03802546335438337</v>
+        <v>0.008693992184221209</v>
       </c>
       <c r="D6" t="n">
-        <v>16.35094924238485</v>
+        <v>18.25738358686454</v>
       </c>
       <c r="G6" t="n">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>1.9</v>
+        <v>75</v>
       </c>
       <c r="I6" t="n">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -1576,10 +1576,10 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="R6" t="n">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1603,17 +1603,17 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>FDN1212 CARBONE 98-95 2-10MM</t>
+          <t>FDN1089. CARBONE 99.05 5-10MM</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>856</v>
+        <v>991</v>
       </c>
       <c r="C7" t="n">
-        <v>0.01185916708564467</v>
+        <v>0.007290335164719041</v>
       </c>
       <c r="D7" t="n">
-        <v>10.15144702531184</v>
+        <v>7.22472214823657</v>
       </c>
       <c r="G7" t="n">
         <v>90</v>
@@ -1673,29 +1673,29 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>92655248 ferro silicum 75 en vrac</t>
+          <t>FDN0263 Cuivre</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1520</v>
+        <v>7550</v>
       </c>
       <c r="C8" t="n">
-        <v>0.005902058780742184</v>
+        <v>0.0004326012293458908</v>
       </c>
       <c r="D8" t="n">
-        <v>8.971129346728119</v>
+        <v>3.266139281561475</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1740,147 +1740,77 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>FDN0263 Cuivre</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>7550</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.0002448958296582788</v>
-      </c>
-      <c r="D9" t="n">
-        <v>1.848963513920005</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>100</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0</v>
-      </c>
-      <c r="R9" t="n">
-        <v>0</v>
-      </c>
-      <c r="S9" t="n">
-        <v>0</v>
-      </c>
-      <c r="T9" t="n">
-        <v>0</v>
-      </c>
-      <c r="U9" t="n">
-        <v>0</v>
-      </c>
-      <c r="V9" t="n">
-        <v>0</v>
-      </c>
-      <c r="W9" t="n">
-        <v>0</v>
-      </c>
-      <c r="X9" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
+    <row r="10">
+      <c r="A10" t="inlineStr">
         <is>
           <t>Resultats</t>
         </is>
       </c>
-      <c r="C11" t="n">
-        <v>1</v>
-      </c>
-      <c r="D11" t="n">
-        <v>514.2932362689817</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0.1654985799726442</v>
-      </c>
-      <c r="F11" t="n">
-        <v>1.099338969416557</v>
-      </c>
-      <c r="G11" t="n">
-        <v>3.549999999999999</v>
-      </c>
-      <c r="H11" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0.2500000000000001</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0.06623291016089476</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0.04333351820885008</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0.02238195882438516</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0.01086061288071428</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0.005465359516578562</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0.01148445566807348</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0.005000000000000001</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0.01522493462388362</v>
-      </c>
-      <c r="R11" t="n">
-        <v>0.01386389799059683</v>
-      </c>
-      <c r="S11" t="n">
-        <v>0.02086160843292314</v>
-      </c>
-      <c r="T11" t="n">
-        <v>0.001119465782190833</v>
-      </c>
-      <c r="U11" t="n">
-        <v>0.006440181925600143</v>
-      </c>
-      <c r="V11" t="n">
-        <v>0.000884285301464598</v>
-      </c>
-      <c r="W11" t="n">
-        <v>0.0009182154209723562</v>
-      </c>
-      <c r="X11" t="n">
-        <v>0.004</v>
+      <c r="C10" t="n">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="D10" t="n">
+        <v>545.250617678421</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.1634234524890259</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1.099489566612194</v>
+      </c>
+      <c r="G10" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.07500000000000001</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.03088522912338708</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.02267387984368442</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.006515284389389482</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.00616690047813584</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0.01125</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0.005917965386253756</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0.01576446234844977</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0.01160032589551886</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0.01587913984955071</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0.002761626251009085</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0.008570258116036525</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0.001681227804912526</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0.002312478153908594</v>
+      </c>
+      <c r="X10" t="n">
+        <v>0.002764920915679086</v>
       </c>
     </row>
   </sheetData>
@@ -2027,138 +1957,138 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>13 Retour Bleu</t>
+          <t>FDN0609 FONTE D'AFFINAGE</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>530</v>
       </c>
       <c r="C2" t="n">
-        <v>0.289947256512396</v>
+        <v>0.4289907139717291</v>
       </c>
       <c r="D2" t="n">
-        <v>153.6720459515699</v>
+        <v>227.3650784050164</v>
       </c>
       <c r="G2" t="n">
-        <v>3.65</v>
+        <v>4.25</v>
       </c>
       <c r="H2" t="n">
-        <v>2.64</v>
+        <v>0.763</v>
       </c>
       <c r="I2" t="n">
-        <v>0.22</v>
+        <v>0.038</v>
       </c>
       <c r="J2" t="n">
-        <v>0.06</v>
+        <v>0.001</v>
       </c>
       <c r="K2" t="n">
-        <v>0.05</v>
+        <v>0.019</v>
       </c>
       <c r="L2" t="n">
-        <v>0.03</v>
+        <v>0.027</v>
       </c>
       <c r="M2" t="n">
-        <v>0.01</v>
+        <v>0.002</v>
       </c>
       <c r="N2" t="n">
-        <v>0.01</v>
+        <v>0.007</v>
       </c>
       <c r="O2" t="n">
-        <v>0.02</v>
+        <v>0.001</v>
       </c>
       <c r="P2" t="n">
-        <v>0.01</v>
+        <v>0.003</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.01</v>
+        <v>0.003</v>
       </c>
       <c r="R2" t="n">
-        <v>0.01</v>
+        <v>0.014</v>
       </c>
       <c r="S2" t="n">
-        <v>0.05</v>
+        <v>0.004</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="U2" t="n">
-        <v>0.01</v>
+        <v>0.011</v>
       </c>
       <c r="V2" t="n">
         <v>0.001</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>0.004</v>
       </c>
       <c r="X2" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>FDN0609 FONTE D'AFFINAGE</t>
+          <t>FDN1207 E8C</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>530</v>
+        <v>453</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2840429604658147</v>
+        <v>0.2975298896082555</v>
       </c>
       <c r="D3" t="n">
-        <v>150.5427690468818</v>
+        <v>134.7810399925398</v>
       </c>
       <c r="G3" t="n">
-        <v>4.25</v>
+        <v>0.1</v>
       </c>
       <c r="H3" t="n">
-        <v>0.763</v>
+        <v>0.02</v>
       </c>
       <c r="I3" t="n">
-        <v>0.038</v>
+        <v>0.45</v>
       </c>
       <c r="J3" t="n">
-        <v>0.001</v>
+        <v>0.01</v>
       </c>
       <c r="K3" t="n">
-        <v>0.019</v>
+        <v>0.04</v>
       </c>
       <c r="L3" t="n">
-        <v>0.027</v>
+        <v>0.01</v>
       </c>
       <c r="M3" t="n">
-        <v>0.002</v>
+        <v>0.02</v>
       </c>
       <c r="N3" t="n">
-        <v>0.007</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0.003</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.003</v>
+        <v>0.03</v>
       </c>
       <c r="R3" t="n">
-        <v>0.014</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0.004</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0.011</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0.004</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -2167,68 +2097,68 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>FDN1207 E8C</t>
+          <t>FDN1204. FRITE HAUT SILICIUM</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>453</v>
+        <v>507</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2356575882249721</v>
+        <v>0.1427541293504455</v>
       </c>
       <c r="D4" t="n">
-        <v>106.7528874659124</v>
+        <v>72.37634358067587</v>
       </c>
       <c r="G4" t="n">
         <v>0.1</v>
       </c>
       <c r="H4" t="n">
-        <v>0.02</v>
+        <v>3</v>
       </c>
       <c r="I4" t="n">
-        <v>0.45</v>
+        <v>0.15</v>
       </c>
       <c r="J4" t="n">
-        <v>0.01</v>
+        <v>0.125</v>
       </c>
       <c r="K4" t="n">
-        <v>0.04</v>
+        <v>0.035</v>
       </c>
       <c r="L4" t="n">
         <v>0.01</v>
       </c>
       <c r="M4" t="n">
-        <v>0.02</v>
+        <v>0.013</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>0.058</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>0.007</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.03</v>
+        <v>0.036</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>0.017</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>0.004</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -2237,53 +2167,53 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>FDN1204. FRITE HAUT SILICIUM</t>
+          <t>FDN1221 RAILS DE CHEMIN DE FER 40CM</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>507</v>
+        <v>423.9</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1069140790683708</v>
+        <v>0.09708992790081045</v>
       </c>
       <c r="D5" t="n">
-        <v>54.20543808766401</v>
+        <v>41.15642043715355</v>
       </c>
       <c r="G5" t="n">
         <v>0.1</v>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>0.335</v>
       </c>
       <c r="I5" t="n">
-        <v>0.15</v>
+        <v>0.98</v>
       </c>
       <c r="J5" t="n">
-        <v>0.125</v>
+        <v>0.041</v>
       </c>
       <c r="K5" t="n">
-        <v>0.035</v>
+        <v>0.051</v>
       </c>
       <c r="L5" t="n">
-        <v>0.01</v>
+        <v>0.018</v>
       </c>
       <c r="M5" t="n">
-        <v>0.013</v>
+        <v>0.021</v>
       </c>
       <c r="N5" t="n">
-        <v>0.001</v>
+        <v>0.004</v>
       </c>
       <c r="O5" t="n">
-        <v>0.058</v>
+        <v>0.003</v>
       </c>
       <c r="P5" t="n">
-        <v>0.007</v>
+        <v>0.008</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.036</v>
+        <v>0.002</v>
       </c>
       <c r="R5" t="n">
-        <v>0.017</v>
+        <v>0.014</v>
       </c>
       <c r="S5" t="n">
         <v>0.001</v>
@@ -2292,50 +2222,50 @@
         <v>0.002</v>
       </c>
       <c r="U5" t="n">
-        <v>0.004</v>
+        <v>0.001</v>
       </c>
       <c r="V5" t="n">
-        <v>0.005</v>
+        <v>0.002</v>
       </c>
       <c r="W5" t="n">
         <v>0.002</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>FDN0184 Disque</t>
+          <t>FDN1212 CARBONE 98-95 2-10MM</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>430</v>
+        <v>856</v>
       </c>
       <c r="C6" t="n">
-        <v>0.06296654335128624</v>
+        <v>0.01857043484078695</v>
       </c>
       <c r="D6" t="n">
-        <v>27.07561364105308</v>
+        <v>15.89629222371363</v>
       </c>
       <c r="G6" t="n">
-        <v>3.5</v>
+        <v>90</v>
       </c>
       <c r="H6" t="n">
-        <v>1.9</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -2353,7 +2283,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -2377,23 +2307,23 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>FDN1212 CARBONE 98-95 2-10MM</t>
+          <t>92655248 ferro silicum 75 en vrac</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>856</v>
+        <v>1520</v>
       </c>
       <c r="C7" t="n">
-        <v>0.01199855403656897</v>
+        <v>0.01333959154808562</v>
       </c>
       <c r="D7" t="n">
-        <v>10.27076225530304</v>
+        <v>20.27617915309015</v>
       </c>
       <c r="G7" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -2447,26 +2377,26 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>92655248 ferro silicum 75 en vrac</t>
+          <t>FDN0269 CARBURE DE SILICIUM 90%</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1520</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.00830296856846402</v>
+        <v>0.001105119524757709</v>
       </c>
       <c r="D8" t="n">
-        <v>12.62051222406531</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="H8" t="n">
-        <v>75</v>
+        <v>95.44</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>75.33</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -2490,7 +2420,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -2524,10 +2454,10 @@
         <v>7550</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0001700497721273712</v>
+        <v>0.0006201932551289278</v>
       </c>
       <c r="D9" t="n">
-        <v>1.283875779561652</v>
+        <v>4.682459076223404</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -2592,70 +2522,70 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="D11" t="n">
-        <v>516.423904452011</v>
+        <v>516.5338128684128</v>
       </c>
       <c r="E11" t="n">
-        <v>0.1606056337863542</v>
+        <v>0.1676791049081751</v>
       </c>
       <c r="F11" t="n">
-        <v>1.099070067520332</v>
+        <v>1.098505965746615</v>
       </c>
       <c r="G11" t="n">
-        <v>3.600000000000001</v>
+        <v>3.55</v>
       </c>
       <c r="H11" t="n">
-        <v>2.049999999999999</v>
+        <v>1.9</v>
       </c>
       <c r="I11" t="n">
-        <v>0.225</v>
+        <v>0.3499999999999999</v>
       </c>
       <c r="J11" t="n">
-        <v>0.06300000000000001</v>
+        <v>0.08724856833568598</v>
       </c>
       <c r="K11" t="n">
-        <v>0.04313712230706794</v>
+        <v>0.03</v>
       </c>
       <c r="L11" t="n">
-        <v>0.02231195603493375</v>
+        <v>0.01773320816903828</v>
       </c>
       <c r="M11" t="n">
-        <v>0.009570593278443852</v>
+        <v>0.01070327138758138</v>
       </c>
       <c r="N11" t="n">
-        <v>0.004994687367453034</v>
+        <v>0.003534048838755791</v>
       </c>
       <c r="O11" t="n">
-        <v>0.01228400467667924</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="P11" t="n">
-        <v>0.0045</v>
+        <v>0.003062970470574789</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.01467023593973192</v>
+        <v>0.01563460690456113</v>
       </c>
       <c r="R11" t="n">
-        <v>0.01876826029201347</v>
+        <v>0.009791949185173128</v>
       </c>
       <c r="S11" t="n">
-        <v>0.01574044874655143</v>
+        <v>0.001955806913138172</v>
       </c>
       <c r="T11" t="n">
-        <v>0.001634042960465815</v>
+        <v>0.002624641684361157</v>
       </c>
       <c r="U11" t="n">
-        <v>0.006451601446521404</v>
+        <v>0.005387004298991612</v>
       </c>
       <c r="V11" t="n">
-        <v>0.001108560612320065</v>
+        <v>0.001336941216525577</v>
       </c>
       <c r="W11" t="n">
-        <v>0.00135</v>
+        <v>0.002195650970389428</v>
       </c>
       <c r="X11" t="n">
-        <v>0.00289947256512396</v>
+        <v>0.0004854496395040522</v>
       </c>
     </row>
   </sheetData>
@@ -2669,7 +2599,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X11"/>
+  <dimension ref="A1:X10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2802,17 +2732,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>13 Retour Bleu</t>
+          <t>FDN0609 FONTE D'AFFINAGE</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>530</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4</v>
+        <v>0.4918959779769318</v>
       </c>
       <c r="D2" t="n">
-        <v>212</v>
+        <v>260.7048683277739</v>
       </c>
       <c r="E2" t="n">
         <v/>
@@ -2821,58 +2751,58 @@
         <v/>
       </c>
       <c r="G2" t="n">
-        <v>3.65</v>
+        <v>4.25</v>
       </c>
       <c r="H2" t="n">
-        <v>2.64</v>
+        <v>0.763</v>
       </c>
       <c r="I2" t="n">
-        <v>0.22</v>
+        <v>0.038</v>
       </c>
       <c r="J2" t="n">
-        <v>0.06</v>
+        <v>0.001</v>
       </c>
       <c r="K2" t="n">
-        <v>0.05</v>
+        <v>0.019</v>
       </c>
       <c r="L2" t="n">
-        <v>0.03</v>
+        <v>0.027</v>
       </c>
       <c r="M2" t="n">
-        <v>0.01</v>
+        <v>0.002</v>
       </c>
       <c r="N2" t="n">
-        <v>0.01</v>
+        <v>0.007</v>
       </c>
       <c r="O2" t="n">
-        <v>0.02</v>
+        <v>0.001</v>
       </c>
       <c r="P2" t="n">
-        <v>0.01</v>
+        <v>0.003</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.01</v>
+        <v>0.003</v>
       </c>
       <c r="R2" t="n">
-        <v>0.01</v>
+        <v>0.014</v>
       </c>
       <c r="S2" t="n">
-        <v>0.05</v>
+        <v>0.004</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="U2" t="n">
-        <v>0.01</v>
+        <v>0.011</v>
       </c>
       <c r="V2" t="n">
         <v>0.001</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>0.004</v>
       </c>
       <c r="X2" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -2885,10 +2815,10 @@
         <v>453</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2861110656818706</v>
+        <v>0.4161275270906154</v>
       </c>
       <c r="D3" t="n">
-        <v>129.6083127538874</v>
+        <v>188.5057697720488</v>
       </c>
       <c r="E3" t="n">
         <v/>
@@ -2954,17 +2884,17 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>FDN0609 FONTE D'AFFINAGE</t>
+          <t>FDN1204. FRITE HAUT SILICIUM</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>530</v>
+        <v>507</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2012503612184769</v>
+        <v>0.05575333237166862</v>
       </c>
       <c r="D4" t="n">
-        <v>106.6626914457928</v>
+        <v>28.26693951243599</v>
       </c>
       <c r="E4" t="n">
         <v/>
@@ -2973,55 +2903,55 @@
         <v/>
       </c>
       <c r="G4" t="n">
-        <v>4.25</v>
+        <v>0.1</v>
       </c>
       <c r="H4" t="n">
-        <v>0.763</v>
+        <v>3</v>
       </c>
       <c r="I4" t="n">
-        <v>0.038</v>
+        <v>0.15</v>
       </c>
       <c r="J4" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="N4" t="n">
         <v>0.001</v>
       </c>
-      <c r="K4" t="n">
-        <v>0.019</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0.027</v>
-      </c>
-      <c r="M4" t="n">
+      <c r="O4" t="n">
+        <v>0.058</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0.007</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0.036</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0.017</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="T4" t="n">
         <v>0.002</v>
       </c>
-      <c r="N4" t="n">
-        <v>0.007</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0.003</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0.003</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0.014</v>
-      </c>
-      <c r="S4" t="n">
+      <c r="U4" t="n">
         <v>0.004</v>
       </c>
-      <c r="T4" t="n">
+      <c r="V4" t="n">
         <v>0.005</v>
       </c>
-      <c r="U4" t="n">
-        <v>0.011</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0.001</v>
-      </c>
       <c r="W4" t="n">
-        <v>0.004</v>
+        <v>0.002</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -3030,17 +2960,17 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>FDN1204. FRITE HAUT SILICIUM</t>
+          <t>FDN0207 FERRO SILICIUM 75</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>507</v>
+        <v>2100</v>
       </c>
       <c r="C5" t="n">
-        <v>0.05660698804922422</v>
+        <v>0.01702920369537701</v>
       </c>
       <c r="D5" t="n">
-        <v>28.69974294095668</v>
+        <v>35.76132776029171</v>
       </c>
       <c r="E5" t="n">
         <v/>
@@ -3049,55 +2979,55 @@
         <v/>
       </c>
       <c r="G5" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>75</v>
       </c>
       <c r="I5" t="n">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0.125</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0.035</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="M5" t="n">
-        <v>0.013</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0.058</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>0.007</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.036</v>
+        <v>0.08</v>
       </c>
       <c r="R5" t="n">
-        <v>0.017</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0.004</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -3106,17 +3036,17 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>FDN0184 Disque</t>
+          <t>FDN1089. CARBONE 99.05 5-10MM</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>430</v>
+        <v>991</v>
       </c>
       <c r="C6" t="n">
-        <v>0.03802546335438337</v>
+        <v>0.01621624536033097</v>
       </c>
       <c r="D6" t="n">
-        <v>16.35094924238485</v>
+        <v>16.07029915208799</v>
       </c>
       <c r="E6" t="n">
         <v/>
@@ -3125,22 +3055,22 @@
         <v/>
       </c>
       <c r="G6" t="n">
-        <v>3.5</v>
+        <v>90</v>
       </c>
       <c r="H6" t="n">
-        <v>1.9</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -3158,7 +3088,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -3182,17 +3112,17 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>FDN1212 CARBONE 98-95 2-10MM</t>
+          <t>FDN0269 CARBURE DE SILICIUM 90%</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>856</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.01185916708564467</v>
+        <v>0.001801242078724935</v>
       </c>
       <c r="D7" t="n">
-        <v>10.15144702531184</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v/>
@@ -3201,13 +3131,13 @@
         <v/>
       </c>
       <c r="G7" t="n">
-        <v>90</v>
+        <v>1.55</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>95.44</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>75.33</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -3231,7 +3161,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -3258,17 +3188,17 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>92655248 ferro silicum 75 en vrac</t>
+          <t>FDN0263 Cuivre</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1520</v>
+        <v>7550</v>
       </c>
       <c r="C8" t="n">
-        <v>0.005902058780742184</v>
+        <v>0.00117647142635125</v>
       </c>
       <c r="D8" t="n">
-        <v>8.971129346728119</v>
+        <v>8.882359268951934</v>
       </c>
       <c r="E8" t="n">
         <v/>
@@ -3280,13 +3210,13 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -3332,19 +3262,17 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>FDN0263 Cuivre</t>
-        </is>
+      <c r="A9" t="n">
+        <v/>
       </c>
       <c r="B9" t="n">
-        <v>7550</v>
+        <v/>
       </c>
       <c r="C9" t="n">
-        <v>0.0002448958296582788</v>
+        <v/>
       </c>
       <c r="D9" t="n">
-        <v>1.848963513920005</v>
+        <v/>
       </c>
       <c r="E9" t="n">
         <v/>
@@ -3353,208 +3281,134 @@
         <v/>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="J9" t="n">
-        <v>100</v>
+        <v/>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v/>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="n">
-        <v/>
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Resultats</t>
+        </is>
       </c>
       <c r="B10" t="n">
         <v/>
       </c>
       <c r="C10" t="n">
-        <v/>
+        <v>1</v>
       </c>
       <c r="D10" t="n">
-        <v/>
+        <v>538.1915637935903</v>
       </c>
       <c r="E10" t="n">
-        <v/>
+        <v>0.2013623362956301</v>
       </c>
       <c r="F10" t="n">
-        <v/>
+        <v>1.101907270813882</v>
       </c>
       <c r="G10" t="n">
-        <v/>
+        <v>3.6</v>
       </c>
       <c r="H10" t="n">
-        <v/>
+        <v>2</v>
       </c>
       <c r="I10" t="n">
-        <v/>
+        <v>0.35</v>
       </c>
       <c r="J10" t="n">
-        <v/>
+        <v>0.1292694804304666</v>
       </c>
       <c r="K10" t="n">
-        <v/>
+        <v>0.02794249129819472</v>
       </c>
       <c r="L10" t="n">
-        <v/>
+        <v>0.01834058407390754</v>
       </c>
       <c r="M10" t="n">
-        <v/>
+        <v>0.01003113581859786</v>
       </c>
       <c r="N10" t="n">
-        <v/>
+        <v>0.003499025178210192</v>
       </c>
       <c r="O10" t="n">
-        <v/>
+        <v>0.003725589255533711</v>
       </c>
       <c r="P10" t="n">
-        <v/>
+        <v>0.001865961260532476</v>
       </c>
       <c r="Q10" t="n">
-        <v/>
+        <v>0.01747306937395748</v>
       </c>
       <c r="R10" t="n">
-        <v/>
+        <v>0.007834350341995411</v>
       </c>
       <c r="S10" t="n">
-        <v/>
+        <v>0.002023337244279396</v>
       </c>
       <c r="T10" t="n">
-        <v/>
+        <v>0.002570986554627996</v>
       </c>
       <c r="U10" t="n">
-        <v/>
+        <v>0.005633869087232924</v>
       </c>
       <c r="V10" t="n">
-        <v/>
+        <v>0.0007706626398352749</v>
       </c>
       <c r="W10" t="n">
-        <v/>
+        <v>0.002079090576651064</v>
       </c>
       <c r="X10" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Resultats</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v/>
-      </c>
-      <c r="C11" t="n">
-        <v>1</v>
-      </c>
-      <c r="D11" t="n">
-        <v>514.2932362689817</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0.1654985799726442</v>
-      </c>
-      <c r="F11" t="n">
-        <v>1.099338969416557</v>
-      </c>
-      <c r="G11" t="n">
-        <v>3.549999999999999</v>
-      </c>
-      <c r="H11" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0.2500000000000001</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0.06623291016089476</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0.04333351820885008</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0.02238195882438516</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0.01086061288071428</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0.005465359516578562</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0.01148445566807348</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0.005000000000000001</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0.01522493462388362</v>
-      </c>
-      <c r="R11" t="n">
-        <v>0.01386389799059683</v>
-      </c>
-      <c r="S11" t="n">
-        <v>0.02086160843292314</v>
-      </c>
-      <c r="T11" t="n">
-        <v>0.001119465782190833</v>
-      </c>
-      <c r="U11" t="n">
-        <v>0.006440181925600143</v>
-      </c>
-      <c r="V11" t="n">
-        <v>0.000884285301464598</v>
-      </c>
-      <c r="W11" t="n">
-        <v>0.0009182154209723562</v>
-      </c>
-      <c r="X11" t="n">
-        <v>0.004</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
